--- a/document/testcase.xlsx
+++ b/document/testcase.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\spux8\Documents\school\14_work\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7227E9E-116C-4673-917F-47B7177AB7AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AAE568A-C57D-4A61-8211-CD21C61A5250}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3318,7 +3318,7 @@
   <dimension ref="A1:J61"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
